--- a/config/path/farm_list.xlsx
+++ b/config/path/farm_list.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,7 +179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,15 +392,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -411,7 +411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -419,10 +419,10 @@
         <v>30001</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
